--- a/static/Holding_Breakup/ZEEL.xlsx
+++ b/static/Holding_Breakup/ZEEL.xlsx
@@ -34,16 +34,16 @@
     <t>Number of Institutions Holding Shares</t>
   </si>
   <si>
-    <t>17.80%</t>
-  </si>
-  <si>
-    <t>69.81%</t>
-  </si>
-  <si>
-    <t>84.93%</t>
-  </si>
-  <si>
-    <t>108</t>
+    <t>6.08%</t>
+  </si>
+  <si>
+    <t>70.93%</t>
+  </si>
+  <si>
+    <t>75.52%</t>
+  </si>
+  <si>
+    <t>110</t>
   </si>
 </sst>
 </file>
